--- a/InsertDataToSQL/data/kala.xlsx
+++ b/InsertDataToSQL/data/kala.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="kala"/>
   </sheets>
   <definedNames>
-    <definedName name="kala">'kala'!$A$1:$S$212</definedName>
+    <definedName name="kala">'kala'!$A$1:$S$213</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S212"/>
+  <dimension ref="A1:S213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14374,6 +14374,72 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="0">
+        <v>0</v>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>1108100300144AA-</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t> نخ پلي استر  DTY  اینترمینگل سفید دنیر 300 فیلامنت 144 درجه AA هم بافت -</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E213" s="0" t="inlineStr">
+        <is>
+          <t>پلي استر</t>
+        </is>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="G213" s="0" t="inlineStr">
+        <is>
+          <t>سفید</t>
+        </is>
+      </c>
+      <c r="H213" s="0" t="inlineStr">
+        <is>
+          <t>DTY  اینترمینگل</t>
+        </is>
+      </c>
+      <c r="I213" s="0" t="inlineStr">
+        <is>
+          <t>کارتن</t>
+        </is>
+      </c>
+      <c r="J213" s="0">
+        <v>144</v>
+      </c>
+      <c r="K213" s="0">
+        <v>1</v>
+      </c>
+      <c r="L213" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="N213" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S213" s="0" t="inlineStr">
+        <is>
+          <t>5156100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
